--- a/data/CS1/case18_3/case18_3_2030.xlsx
+++ b/data/CS1/case18_3/case18_3_2030.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453963B5-AF20-4E3D-8792-B1129764EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80CCEA-2776-431A-BFBB-D521327AFB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15095,8 +15095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15112,16 +15112,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -27604,8 +27604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS1/case18_3/case18_3_2030.xlsx
+++ b/data/CS1/case18_3/case18_3_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80CCEA-2776-431A-BFBB-D521327AFB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB18B0A-8537-4410-8987-CE413C4B2988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="4350" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15096,7 +15096,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15112,16 +15112,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
